--- a/templates/files/Excel.xlsx
+++ b/templates/files/Excel.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Troldal/Development/bin2c/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC33A6FB-1603-2641-A40F-B7C7F2B0E698}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId4"/>
+    <sheet name="товары" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t/>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -259,29 +279,19 @@
   </si>
   <si>
     <t>маркеры для вязания пластиковые 20шт</t>
-  </si>
-  <si>
-    <t>Evaluation Only. Created with Aspose.Cells for Node.js via Java.Copyright 2003 - 2024 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,114 +311,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -715,60 +628,60 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d64fe586-88bc-4c28-8661-5c8bef3f5a01}">
-  <dimension ref="A1:F67"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>100.99</v>
+        <v>100.98999999999999</v>
       </c>
       <c r="D2">
-        <v>333</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>110</v>
@@ -777,18 +690,18 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -797,18 +710,18 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -817,18 +730,18 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -837,18 +750,18 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -857,18 +770,18 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -877,18 +790,18 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -897,18 +810,18 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -917,18 +830,18 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -937,18 +850,18 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75">
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -957,18 +870,18 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75">
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>110</v>
@@ -977,18 +890,18 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75">
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -997,18 +910,18 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75">
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1017,18 +930,18 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75">
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1037,38 +950,38 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75">
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>23</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
       </c>
       <c r="F17">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75">
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1077,18 +990,18 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75">
+    <row r="19">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1097,18 +1010,18 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75">
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1117,18 +1030,18 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75">
+    <row r="21">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1137,18 +1050,18 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75">
+    <row r="22">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1157,18 +1070,18 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75">
+    <row r="23">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1177,18 +1090,18 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75">
+    <row r="24">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1197,18 +1110,18 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75">
+    <row r="25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1217,18 +1130,18 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75">
+    <row r="26">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1237,18 +1150,18 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1257,18 +1170,18 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75">
+    <row r="28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1277,18 +1190,18 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75">
+    <row r="29">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1297,18 +1210,18 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75">
+    <row r="30">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1317,18 +1230,18 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F30">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75">
+    <row r="31">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1337,18 +1250,18 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F31">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75">
+    <row r="32">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1357,18 +1270,18 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75">
+    <row r="33">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1377,18 +1290,18 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F33">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75">
+    <row r="34">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1397,38 +1310,38 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F34">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75">
+    <row r="35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>43</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>42</v>
       </c>
       <c r="F35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75">
+    <row r="36">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1437,18 +1350,18 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75">
+    <row r="37">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1457,18 +1370,18 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75">
+    <row r="38">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1477,18 +1390,18 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75">
+    <row r="39">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1497,18 +1410,18 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75">
+    <row r="40">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1517,18 +1430,18 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F40">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75">
+    <row r="41">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1537,18 +1450,18 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F41">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75">
+    <row r="42">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1557,18 +1470,18 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75">
+    <row r="43">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1577,18 +1490,18 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F43">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75">
+    <row r="44">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1597,18 +1510,18 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75">
+    <row r="45">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1617,38 +1530,38 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75">
+    <row r="46">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
         <v>55</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>54</v>
       </c>
       <c r="F46">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75">
+    <row r="47">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1657,18 +1570,18 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75">
+    <row r="48">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1677,18 +1590,18 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12.75">
+    <row r="49">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1697,18 +1610,18 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12.75">
+    <row r="50">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1717,18 +1630,18 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="12.75">
+    <row r="51">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1737,38 +1650,38 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12.75">
+    <row r="52">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
         <v>62</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>61</v>
       </c>
       <c r="F52">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12.75">
+    <row r="53">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1777,18 +1690,18 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12.75">
+    <row r="54">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1797,38 +1710,38 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12.75">
+    <row r="55">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
         <v>66</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>65</v>
       </c>
       <c r="F55">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.75">
+    <row r="56">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1837,38 +1750,38 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.75">
+    <row r="57">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
         <v>69</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>68</v>
       </c>
       <c r="F57">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12.75">
+    <row r="58">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1877,18 +1790,18 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F58">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12.75">
+    <row r="59">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1897,18 +1810,18 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F59">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12.75">
+    <row r="60">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1917,18 +1830,18 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F60">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="12.75">
+    <row r="61">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1937,18 +1850,18 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F61">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="12.75">
+    <row r="62">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1957,38 +1870,38 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F62">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12.75">
+    <row r="63">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
         <v>76</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>75</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="12.75">
+    <row r="64">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1997,18 +1910,18 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12.75">
+    <row r="65">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2017,18 +1930,18 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12.75">
+    <row r="66">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2037,18 +1950,18 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12.75">
+    <row r="67">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2057,31 +1970,13 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29f7e9d2-4316-4ee1-b2fc-7a1c50ebff3c}">
-  <dimension ref="A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/files/Excel.xlsx
+++ b/templates/files/Excel.xlsx
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>100.98999999999999</v>
+        <v>100.98</v>
       </c>
       <c r="D2">
         <v>19</v>

--- a/templates/files/Excel.xlsx
+++ b/templates/files/Excel.xlsx
@@ -684,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>110</v>
+        <v>4321</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-283645</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>6435</v>
       </c>
       <c r="D31">
         <v>1</v>
